--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/remainingNumberTemplate.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/remainingNumberTemplate.xlsx
@@ -34,12 +34,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -56,7 +62,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,9 +345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/remainingNumberTemplate.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/remainingNumberTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniversalK\nts.uk\uk.at\at.ctx\request\nts.uk.ctx.at.request.infra\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. UK\02.UkPersonInfo\SourceTreee\nts.uk\uk.at\at.ctx\request\nts.uk.ctx.at.request.infra\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,13 +349,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>